--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -1814,9 +1814,6 @@
     <t>Observera att det inte finns någon modellering av renhet i denna modell - detta antas konstant under hela tillväxt- och lagringsperioden</t>
   </si>
   <si>
-    <t>SKÖDE OCH LAGRING AV SOCKERBETOR - SVERIGE 2021</t>
-  </si>
-  <si>
     <t># GENERAL</t>
   </si>
   <si>
@@ -2109,6 +2106,9 @@
   </si>
   <si>
     <t>Sockerförlust (% originell)</t>
+  </si>
+  <si>
+    <t>SKÖRDE OCH LAGRING AV SOCKERBETOR - SVERIGE 2021</t>
   </si>
 </sst>
 </file>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D69" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2442,12 +2442,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>593</v>
+        <v>691</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(A2,B2,A2,", ",A2,C2,A2,", ",A2,D2,A2,",")</f>
-        <v>"AAA", "SUGAR BEET HARVEST AND STORAGE - 2021 SWEDEN", "SKÖDE OCH LAGRING AV SOCKERBETOR - SVERIGE 2021",</v>
+        <v>"AAA", "SUGAR BEET HARVEST AND STORAGE - 2021 SWEDEN", "SKÖRDE OCH LAGRING AV SOCKERBETOR - SVERIGE 2021",</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B3" t="s">
         <v>293</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B4" t="s">
         <v>294</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B5" t="s">
         <v>295</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B6" t="s">
         <v>296</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B7" t="s">
         <v>297</v>
@@ -2546,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -2555,20 +2555,20 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B10" t="s">
         <v>298</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B11" t="s">
         <v>299</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B12" t="s">
         <v>300</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B13" t="s">
         <v>301</v>
@@ -2631,7 +2631,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B14" t="s">
         <v>302</v>
@@ -2649,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B15" t="s">
         <v>303</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B16" t="s">
         <v>304</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B17" t="s">
         <v>305</v>
@@ -2703,7 +2703,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B18" t="s">
         <v>306</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B19" t="s">
         <v>307</v>
@@ -2739,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B20" t="s">
         <v>308</v>
@@ -2757,7 +2757,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B21" t="s">
         <v>309</v>
@@ -2775,7 +2775,7 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B22" t="s">
         <v>310</v>
@@ -2793,7 +2793,7 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B23" t="s">
         <v>311</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B24" t="s">
         <v>312</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B25" t="s">
         <v>313</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B26" t="s">
         <v>314</v>
@@ -2865,7 +2865,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B27" t="s">
         <v>315</v>
@@ -2883,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B28" t="s">
         <v>316</v>
@@ -2901,7 +2901,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B29" t="s">
         <v>317</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B30" t="s">
         <v>318</v>
@@ -2937,7 +2937,7 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B31" t="s">
         <v>319</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B32" t="s">
         <v>320</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B33" t="s">
         <v>321</v>
@@ -2991,7 +2991,7 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B34" t="s">
         <v>322</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B35" t="s">
         <v>323</v>
@@ -3027,7 +3027,7 @@
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B36" t="s">
         <v>324</v>
@@ -3045,7 +3045,7 @@
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B37" t="s">
         <v>325</v>
@@ -3063,7 +3063,7 @@
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B38" t="s">
         <v>326</v>
@@ -3081,7 +3081,7 @@
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B39" t="s">
         <v>327</v>
@@ -3108,20 +3108,20 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B41" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B42" t="s">
         <v>328</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B43" t="s">
         <v>329</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B44" t="s">
         <v>330</v>
@@ -3166,7 +3166,7 @@
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="2"/>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B45" t="s">
         <v>331</v>
@@ -3184,7 +3184,7 @@
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="2"/>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B46" t="s">
         <v>332</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B47" t="s">
         <v>333</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B48" t="s">
         <v>334</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B49" t="s">
         <v>335</v>
@@ -3256,7 +3256,7 @@
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="2"/>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B50" t="s">
         <v>336</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B51" t="s">
         <v>337</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B52" t="s">
         <v>338</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B53" t="s">
         <v>339</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B54" t="s">
         <v>340</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B55" t="s">
         <v>341</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B56" t="s">
         <v>342</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B57" t="s">
         <v>343</v>
@@ -3409,20 +3409,20 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B59" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B60" t="s">
         <v>344</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B61" t="s">
         <v>345</v>
@@ -3449,7 +3449,7 @@
         <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="3"/>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B62" t="s">
         <v>346</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B63" t="s">
         <v>347</v>
@@ -3485,7 +3485,7 @@
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="3"/>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B64" t="s">
         <v>348</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B65" t="s">
         <v>349</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B66" t="s">
         <v>350</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B67" t="s">
         <v>351</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B68" t="s">
         <v>352</v>
@@ -3584,20 +3584,20 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B70" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B71" t="s">
         <v>353</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B72" t="s">
         <v>354</v>
@@ -3624,7 +3624,7 @@
         <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="4"/>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B73" t="s">
         <v>355</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B74" t="s">
         <v>356</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B75" t="s">
         <v>357</v>
@@ -3678,7 +3678,7 @@
         <v>91</v>
       </c>
       <c r="D75" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="4"/>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B76" t="s">
         <v>358</v>
@@ -3696,7 +3696,7 @@
         <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="4"/>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B77" t="s">
         <v>359</v>
@@ -3714,7 +3714,7 @@
         <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="4"/>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B78" t="s">
         <v>360</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B79" t="s">
         <v>361</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B80" t="s">
         <v>362</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B81" t="s">
         <v>363</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B82" t="s">
         <v>364</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B83" t="s">
         <v>365</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B84" t="s">
         <v>366</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B85" t="s">
         <v>367</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B86" t="s">
         <v>368</v>
@@ -3876,7 +3876,7 @@
         <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="4"/>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B87" t="s">
         <v>369</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B88" t="s">
         <v>370</v>
@@ -3912,7 +3912,7 @@
         <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="4"/>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B89" t="s">
         <v>371</v>
@@ -3930,7 +3930,7 @@
         <v>110</v>
       </c>
       <c r="D89" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="4"/>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B90" t="s">
         <v>372</v>
@@ -3957,20 +3957,20 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B92" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B93" t="s">
         <v>373</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B94" t="s">
         <v>374</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B95" t="s">
         <v>375</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B96" t="s">
         <v>376</v>
@@ -4033,7 +4033,7 @@
         <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="5"/>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B97" t="s">
         <v>377</v>
@@ -4051,7 +4051,7 @@
         <v>117</v>
       </c>
       <c r="D97" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="5"/>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B98" t="s">
         <v>378</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B99" t="s">
         <v>379</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B100" t="s">
         <v>380</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B101" t="s">
         <v>381</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B102" t="s">
         <v>382</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B103" t="s">
         <v>383</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B104" t="s">
         <v>384</v>
@@ -4177,7 +4177,7 @@
         <v>127</v>
       </c>
       <c r="D104" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="5"/>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B105" t="s">
         <v>385</v>
@@ -4195,7 +4195,7 @@
         <v>128</v>
       </c>
       <c r="D105" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="5"/>
@@ -4204,20 +4204,20 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B107" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B108" t="s">
         <v>386</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B109" t="s">
         <v>387</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B110" t="s">
         <v>388</v>
@@ -4262,7 +4262,7 @@
         <v>133</v>
       </c>
       <c r="D110" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="6"/>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B111" t="s">
         <v>389</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B112" t="s">
         <v>390</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B113" t="s">
         <v>391</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B114" t="s">
         <v>392</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B115" t="s">
         <v>393</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B116" t="s">
         <v>394</v>
@@ -4370,7 +4370,7 @@
         <v>143</v>
       </c>
       <c r="D116" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="6"/>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B117" t="s">
         <v>395</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B118" t="s">
         <v>396</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B119" t="s">
         <v>397</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B120" t="s">
         <v>398</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B121" t="s">
         <v>399</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B122" t="s">
         <v>400</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B123" t="s">
         <v>401</v>
@@ -4496,7 +4496,7 @@
         <v>154</v>
       </c>
       <c r="D123" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="6"/>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B124" t="s">
         <v>402</v>
@@ -4514,7 +4514,7 @@
         <v>155</v>
       </c>
       <c r="D124" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E124" t="s">
         <v>28</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B125" t="s">
         <v>403</v>
@@ -4535,7 +4535,7 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="6"/>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B126" t="s">
         <v>404</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B127" t="s">
         <v>405</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B128" t="s">
         <v>406</v>
@@ -4589,7 +4589,7 @@
         <v>158</v>
       </c>
       <c r="D128" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="6"/>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B129" t="s">
         <v>407</v>
@@ -4607,7 +4607,7 @@
         <v>159</v>
       </c>
       <c r="D129" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="6"/>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B130" t="s">
         <v>408</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B131" t="s">
         <v>409</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B132" t="s">
         <v>410</v>
@@ -4670,20 +4670,20 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B134" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B135" t="s">
         <v>411</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B136" t="s">
         <v>412</v>
@@ -4710,7 +4710,7 @@
         <v>168</v>
       </c>
       <c r="D136" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="7"/>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B137" t="s">
         <v>413</v>
@@ -4728,7 +4728,7 @@
         <v>169</v>
       </c>
       <c r="D137" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="7"/>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B138" t="s">
         <v>414</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B139" t="s">
         <v>415</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B140" t="s">
         <v>416</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B141" t="s">
         <v>417</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B142" t="s">
         <v>418</v>
@@ -4818,7 +4818,7 @@
         <v>174</v>
       </c>
       <c r="D142" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="7"/>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B143" t="s">
         <v>419</v>
@@ -4836,7 +4836,7 @@
         <v>175</v>
       </c>
       <c r="D143" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="7"/>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B144" t="s">
         <v>420</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B145" t="s">
         <v>421</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B146" t="s">
         <v>422</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B147" t="s">
         <v>423</v>
@@ -4908,7 +4908,7 @@
         <v>181</v>
       </c>
       <c r="D147" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="7"/>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B148" t="s">
         <v>424</v>
@@ -4926,7 +4926,7 @@
         <v>182</v>
       </c>
       <c r="D148" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="7"/>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B149" t="s">
         <v>425</v>
@@ -4944,7 +4944,7 @@
         <v>183</v>
       </c>
       <c r="D149" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="7"/>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B150" t="s">
         <v>426</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B151" t="s">
         <v>427</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B152" t="s">
         <v>428</v>
@@ -4998,7 +4998,7 @@
         <v>188</v>
       </c>
       <c r="D152" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="7"/>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B153" t="s">
         <v>429</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B154" t="s">
         <v>430</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B155" t="s">
         <v>431</v>
@@ -5052,7 +5052,7 @@
         <v>193</v>
       </c>
       <c r="D155" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="7"/>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B156" t="s">
         <v>432</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B157" t="s">
         <v>433</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B158" t="s">
         <v>434</v>
@@ -5106,7 +5106,7 @@
         <v>198</v>
       </c>
       <c r="D158" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="7"/>
@@ -5115,20 +5115,20 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B160" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B161" t="s">
         <v>435</v>
@@ -5137,7 +5137,7 @@
         <v>199</v>
       </c>
       <c r="D161" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" ref="F161:F178" si="8">CONCATENATE(A161,B161,A161,", ",A161,C161,A161,", ",A161,D161,A161,",")</f>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B162" t="s">
         <v>436</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B163" t="s">
         <v>437</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B164" t="s">
         <v>438</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B165" t="s">
         <v>439</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B166" t="s">
         <v>440</v>
@@ -5227,7 +5227,7 @@
         <v>176</v>
       </c>
       <c r="D166" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="8"/>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B167" t="s">
         <v>441</v>
@@ -5245,7 +5245,7 @@
         <v>203</v>
       </c>
       <c r="D167" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="8"/>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B168" t="s">
         <v>442</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B169" t="s">
         <v>443</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B170" t="s">
         <v>444</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B171" t="s">
         <v>445</v>
@@ -5317,7 +5317,7 @@
         <v>206</v>
       </c>
       <c r="D171" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="8"/>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B172" t="s">
         <v>446</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B173" t="s">
         <v>447</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B174" t="s">
         <v>448</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B175" t="s">
         <v>449</v>
@@ -5389,7 +5389,7 @@
         <v>209</v>
       </c>
       <c r="D175" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="8"/>
@@ -5398,7 +5398,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B176" t="s">
         <v>450</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B177" t="s">
         <v>451</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B178" t="s">
         <v>452</v>
@@ -5452,20 +5452,20 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B180" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B181" t="s">
         <v>453</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B182" t="s">
         <v>454</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B183" t="s">
         <v>455</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B184" t="s">
         <v>456</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B185" t="s">
         <v>457</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B186" t="s">
         <v>458</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B187" t="s">
         <v>459</v>
@@ -5582,7 +5582,7 @@
         <v>221</v>
       </c>
       <c r="D187" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="9"/>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B188" t="s">
         <v>460</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B189" t="s">
         <v>461</v>
@@ -5618,7 +5618,7 @@
         <v>224</v>
       </c>
       <c r="D189" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="9"/>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B190" t="s">
         <v>462</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B191" t="s">
         <v>463</v>
@@ -5654,7 +5654,7 @@
         <v>227</v>
       </c>
       <c r="D191" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="9"/>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B192" t="s">
         <v>464</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B193" t="s">
         <v>465</v>
@@ -5690,7 +5690,7 @@
         <v>228</v>
       </c>
       <c r="D193" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="9"/>
@@ -5699,20 +5699,20 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B195" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B196" t="s">
         <v>466</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B197" t="s">
         <v>467</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B198" t="s">
         <v>468</v>
@@ -5757,7 +5757,7 @@
         <v>200</v>
       </c>
       <c r="D198" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="10"/>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B199" t="s">
         <v>469</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B200" t="s">
         <v>470</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B201" t="s">
         <v>471</v>
@@ -5820,30 +5820,30 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B204" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B206" t="s">
         <v>472</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B207" t="s">
         <v>473</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B208" t="s">
         <v>474</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B209" t="s">
         <v>475</v>
@@ -5906,7 +5906,7 @@
         <v>235</v>
       </c>
       <c r="D209" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="11"/>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B210" t="s">
         <v>476</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B211" t="s">
         <v>477</v>
@@ -5951,12 +5951,12 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B213" t="s">
         <v>478</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B214" t="s">
         <v>479</v>
@@ -5983,7 +5983,7 @@
         <v>238</v>
       </c>
       <c r="D214" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="12"/>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B215" t="s">
         <v>480</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B216" t="s">
         <v>481</v>
@@ -6019,7 +6019,7 @@
         <v>240</v>
       </c>
       <c r="D216" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="12"/>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B217" t="s">
         <v>482</v>
@@ -6037,7 +6037,7 @@
         <v>241</v>
       </c>
       <c r="D217" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="12"/>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B218" t="s">
         <v>483</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B219" t="s">
         <v>484</v>
@@ -6073,7 +6073,7 @@
         <v>243</v>
       </c>
       <c r="D219" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="12"/>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B220" t="s">
         <v>485</v>
@@ -6100,17 +6100,17 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B223" t="s">
         <v>486</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B224" t="s">
         <v>487</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B225" t="s">
         <v>488</v>
@@ -6155,7 +6155,7 @@
         <v>246</v>
       </c>
       <c r="D225" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="13"/>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B226" t="s">
         <v>489</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B227" t="s">
         <v>490</v>
@@ -6191,7 +6191,7 @@
         <v>248</v>
       </c>
       <c r="D227" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="13"/>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B228" t="s">
         <v>491</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B229" t="s">
         <v>492</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B230" t="s">
         <v>493</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B231" t="s">
         <v>494</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B232" t="s">
         <v>495</v>
@@ -6281,7 +6281,7 @@
         <v>253</v>
       </c>
       <c r="D232" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="13"/>
@@ -6290,17 +6290,17 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B235" t="s">
         <v>496</v>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B236" t="s">
         <v>497</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B237" t="s">
         <v>498</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B238" t="s">
         <v>499</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B239" t="s">
         <v>500</v>
@@ -6381,7 +6381,7 @@
         <v>257</v>
       </c>
       <c r="D239" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="14"/>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B240" t="s">
         <v>501</v>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B241" t="s">
         <v>502</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B242" t="s">
         <v>503</v>
@@ -6435,7 +6435,7 @@
         <v>260</v>
       </c>
       <c r="D242" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="14"/>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B243" t="s">
         <v>504</v>
@@ -6462,12 +6462,12 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B245" t="s">
         <v>505</v>
@@ -6476,7 +6476,7 @@
         <v>94</v>
       </c>
       <c r="D245" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" ref="F245:F254" si="15">CONCATENATE(A245,B245,A245,", ",A245,C245,A245,", ",A245,D245,A245,",")</f>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B246" t="s">
         <v>506</v>
@@ -6494,7 +6494,7 @@
         <v>262</v>
       </c>
       <c r="D246" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="15"/>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B247" t="s">
         <v>507</v>
@@ -6512,7 +6512,7 @@
         <v>263</v>
       </c>
       <c r="D247" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="15"/>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B248" t="s">
         <v>508</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B249" t="s">
         <v>509</v>
@@ -6548,7 +6548,7 @@
         <v>265</v>
       </c>
       <c r="D249" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="15"/>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B250" t="s">
         <v>510</v>
@@ -6566,7 +6566,7 @@
         <v>266</v>
       </c>
       <c r="D250" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="15"/>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B251" t="s">
         <v>511</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B252" t="s">
         <v>512</v>
@@ -6602,7 +6602,7 @@
         <v>268</v>
       </c>
       <c r="D252" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="15"/>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B253" t="s">
         <v>513</v>
@@ -6620,7 +6620,7 @@
         <v>269</v>
       </c>
       <c r="D253" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="15"/>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B254" t="s">
         <v>514</v>
@@ -6647,17 +6647,17 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B257" t="s">
         <v>515</v>
@@ -6675,7 +6675,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B258" t="s">
         <v>516</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B259" t="s">
         <v>517</v>
@@ -6702,7 +6702,7 @@
         <v>272</v>
       </c>
       <c r="D259" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" si="16"/>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B260" t="s">
         <v>518</v>
@@ -6720,7 +6720,7 @@
         <v>273</v>
       </c>
       <c r="D260" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="16"/>
@@ -6729,17 +6729,17 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B263" t="s">
         <v>519</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B264" t="s">
         <v>520</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B265" t="s">
         <v>521</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B266" t="s">
         <v>522</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B267" t="s">
         <v>523</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B268" t="s">
         <v>524</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B269" t="s">
         <v>525</v>
@@ -6865,17 +6865,17 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B272" t="s">
         <v>526</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B273" t="s">
         <v>527</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B274" t="s">
         <v>528</v>
@@ -6920,7 +6920,7 @@
         <v>281</v>
       </c>
       <c r="D274" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="18"/>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B275" t="s">
         <v>529</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B276" t="s">
         <v>530</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B277" t="s">
         <v>531</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B278" t="s">
         <v>532</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B279" t="s">
         <v>533</v>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B280" t="s">
         <v>534</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B281" t="s">
         <v>535</v>
@@ -7046,7 +7046,7 @@
         <v>288</v>
       </c>
       <c r="D281" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F281" t="str">
         <f t="shared" si="18"/>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B282" t="s">
         <v>536</v>
@@ -7064,7 +7064,7 @@
         <v>289</v>
       </c>
       <c r="D282" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F282" t="str">
         <f t="shared" si="18"/>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B283" t="s">
         <v>537</v>
@@ -7082,7 +7082,7 @@
         <v>290</v>
       </c>
       <c r="D283" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F283" t="str">
         <f t="shared" si="18"/>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B284" t="s">
         <v>538</v>
@@ -7100,7 +7100,7 @@
         <v>291</v>
       </c>
       <c r="D284" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F284" t="str">
         <f t="shared" si="18"/>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B285" t="s">
         <v>539</v>
